--- a/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_6_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_6_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2757540.462982149</v>
+        <v>2757540.462982148</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.790763976</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.790763976</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570965302.325459</v>
+        <v>59684342.42064518</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U5" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V5" t="n">
         <v>629.8510241668239</v>
@@ -1192,7 +1192,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T8" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U8" t="n">
         <v>648.751427201877</v>
@@ -1201,7 +1201,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W8" t="n">
-        <v>636.9851316879694</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X8" t="n">
         <v>592.2818334606677</v>
@@ -1235,10 +1235,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1627,10 +1627,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S15" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H17" t="n">
         <v>347.8590406130752</v>
@@ -1915,7 +1915,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X17" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y17" t="n">
         <v>511.3174326828064</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S18" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T18" t="n">
         <v>392.6911708778912</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
         <v>347.8590406130752</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S21" t="n">
         <v>408.192915058951</v>
@@ -2228,7 +2228,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W21" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X21" t="n">
         <v>419.8627394453875</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S24" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2499,58 +2499,58 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D26" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E26" t="n">
         <v>404.3632896068686</v>
@@ -2614,7 +2614,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T26" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U26" t="n">
         <v>648.751427201877</v>
@@ -2718,25 +2718,25 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D29" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E29" t="n">
         <v>404.3632896068686</v>
@@ -2857,7 +2857,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W29" t="n">
         <v>638.3734759809475</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -3040,7 +3040,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D32" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E32" t="n">
         <v>404.3632896068686</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S33" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D35" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E35" t="n">
         <v>404.3632896068686</v>
@@ -3337,7 +3337,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X35" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y35" t="n">
         <v>511.3174326828064</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S36" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>560.964918411981</v>
       </c>
       <c r="U41" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V41" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W41" t="n">
         <v>638.3734759809475</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S42" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3909,19 +3909,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H44" t="n">
         <v>347.8590406130752</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4339,22 +4339,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>1415.008586083262</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L2" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M2" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N2" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O2" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P2" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q2" t="n">
         <v>6931.116362236997</v>
@@ -4470,22 +4470,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>290.6133856211738</v>
+        <v>258.788904211413</v>
       </c>
       <c r="F4" t="n">
-        <v>290.6133856211738</v>
+        <v>258.788904211413</v>
       </c>
       <c r="G4" t="n">
-        <v>290.6133856211738</v>
+        <v>258.788904211413</v>
       </c>
       <c r="H4" t="n">
         <v>290.6133856211738</v>
@@ -4524,22 +4524,22 @@
         <v>140.96</v>
       </c>
       <c r="T4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="U4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="5">
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4606,19 +4606,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="6">
@@ -4740,10 +4740,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104935</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="O7" t="n">
         <v>457.4949902104935</v>
@@ -4813,19 +4813,19 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>1901.586501346477</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L8" t="n">
-        <v>2819.17922466306</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M8" t="n">
-        <v>3301.358424176563</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N8" t="n">
-        <v>3866.401488049235</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O8" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P8" t="n">
         <v>6474.295852434775</v>
@@ -4840,13 +4840,13 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
         <v>4181.776441881509</v>
@@ -4883,7 +4883,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4980,10 +4980,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5047,7 +5047,7 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K11" t="n">
         <v>1936.671378010443</v>
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5275,7 +5275,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
@@ -5284,10 +5284,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K14" t="n">
-        <v>1936.671378010443</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L14" t="n">
         <v>3681.051378010443</v>
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5475,19 +5475,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F17" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G17" t="n">
         <v>492.3327682960356</v>
@@ -5563,10 +5563,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="18">
@@ -5624,7 +5624,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S18" t="n">
         <v>5159.222422432123</v>
@@ -5655,22 +5655,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5715,16 +5715,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
         <v>492.3327682960356</v>
@@ -5755,28 +5755,28 @@
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K20" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L20" t="n">
-        <v>2257.013012360075</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M20" t="n">
-        <v>2739.192211873577</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N20" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O20" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P20" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q20" t="n">
         <v>6931.116362236997</v>
@@ -5785,25 +5785,25 @@
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="21">
@@ -5861,19 +5861,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S21" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T21" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U21" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V21" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W21" t="n">
         <v>3503.082427021609</v>
@@ -5995,25 +5995,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K23" t="n">
-        <v>2153.765102156982</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L23" t="n">
-        <v>3071.357825473565</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M23" t="n">
-        <v>3553.537024987068</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N23" t="n">
-        <v>4118.58008885974</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O23" t="n">
-        <v>5028.734971800483</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P23" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q23" t="n">
         <v>6931.116362236997</v>
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
         <v>140.96</v>
@@ -6198,7 +6198,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D26" t="n">
         <v>1711.662994324041</v>
@@ -6232,10 +6232,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J26" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K26" t="n">
-        <v>2550.716641651425</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L26" t="n">
         <v>3681.051378010443</v>
@@ -6262,22 +6262,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="27">
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H28" t="n">
         <v>140.96</v>
@@ -6445,10 +6445,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D29" t="n">
         <v>1711.662994324041</v>
@@ -6469,10 +6469,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>2550.716641651425</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L29" t="n">
         <v>3681.051378010443</v>
@@ -6505,16 +6505,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="30">
@@ -6572,7 +6572,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6682,10 +6682,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D32" t="n">
         <v>1711.662994324041</v>
@@ -6733,25 +6733,25 @@
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="33">
@@ -6809,7 +6809,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S33" t="n">
         <v>5159.222422432123</v>
@@ -6840,22 +6840,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
         <v>140.96</v>
@@ -6894,22 +6894,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
         <v>1711.662994324041</v>
@@ -6943,22 +6943,22 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>2550.716641651425</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>3681.051378010443</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M35" t="n">
-        <v>4163.230577523946</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P35" t="n">
         <v>6474.295852434775</v>
@@ -6985,10 +6985,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -7046,7 +7046,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S36" t="n">
         <v>5159.222422432123</v>
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H37" t="n">
         <v>140.96</v>
@@ -7140,13 +7140,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="38">
@@ -7156,22 +7156,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
@@ -7180,10 +7180,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L38" t="n">
         <v>3681.051378010443</v>
@@ -7207,25 +7207,25 @@
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7368,13 +7368,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
         <v>140.96</v>
@@ -7417,10 +7417,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J41" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L41" t="n">
         <v>3681.051378010443</v>
@@ -7450,7 +7450,7 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
         <v>4826.598134791557</v>
@@ -7520,7 +7520,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S42" t="n">
         <v>5159.222422432123</v>
@@ -7557,16 +7557,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="D43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H43" t="n">
         <v>140.96</v>
@@ -7630,19 +7630,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G44" t="n">
         <v>492.3327682960356</v>
@@ -7681,25 +7681,25 @@
         <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7848,7 +7848,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W46" t="n">
         <v>140.96</v>
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L2" t="n">
-        <v>746.2187031047679</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>491.4928437002177</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8695,10 +8695,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
-        <v>526.9321130577587</v>
+        <v>96.62737647160202</v>
       </c>
       <c r="L11" t="n">
         <v>835.1386633165826</v>
@@ -8932,13 +8932,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K14" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>835.1386633165826</v>
+        <v>214.8909222650855</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9403,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>822.5705182964546</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>294.54111633436</v>
@@ -9643,16 +9643,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>315.9139665186112</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,10 +9661,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>301.7997308240085</v>
       </c>
       <c r="Q23" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>294.54111633436</v>
@@ -9880,13 +9880,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>214.8909222650855</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L29" t="n">
-        <v>214.8909222650855</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>214.8909222650855</v>
+        <v>491.4928437002175</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>96.62737647160202</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
-        <v>835.1386633165826</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>96.62737647160202</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>835.1386633165826</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23515,10 +23515,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23715,13 +23715,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>211.9747076517084</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23803,7 +23803,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23955,7 +23955,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W19" t="n">
         <v>226.3728098387097</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S24" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24438,7 +24438,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y25" t="n">
-        <v>287.4653528494624</v>
+        <v>122.252564306036</v>
       </c>
     </row>
     <row r="26">
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>121.9010117936523</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C28" t="n">
         <v>272.7252466480447</v>
@@ -24624,7 +24624,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I28" t="n">
         <v>97.40414414470841</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S33" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -25134,10 +25134,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T34" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U34" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>199.1703102162162</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S36" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25380,7 +25380,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T40" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U40" t="n">
         <v>150.8146863564251</v>
@@ -25617,7 +25617,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S42" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D43" t="n">
-        <v>120.3234295121291</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E43" t="n">
         <v>280.9809048369565</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16043.16799238382</v>
+        <v>1328579.677534699</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31819.98527572748</v>
+        <v>2619441.143875608</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47596.80255907112</v>
+        <v>3910302.610216519</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65553.46547814</v>
+        <v>5066546.631206329</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83510.12839720887</v>
+        <v>6222790.652196138</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101466.7913162778</v>
+        <v>7379034.67318594</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119423.4542353466</v>
+        <v>8535278.694175739</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137380.1171544155</v>
+        <v>9691522.715165539</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155336.7800734843</v>
+        <v>10847766.73615534</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173293.4429925532</v>
+        <v>12004010.75714514</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191250.1059116221</v>
+        <v>13160254.77813494</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209206.7688306909</v>
+        <v>14316498.79912475</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227163.43174976</v>
+        <v>15472742.82011457</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245120.0946688291</v>
+        <v>16628986.84110439</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>263076.7575878983</v>
+        <v>17785230.86209421</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>913048.3542411312</v>
+      </c>
+      <c r="C2" t="n">
         <v>913048.3542411313</v>
       </c>
-      <c r="C2" t="n">
-        <v>913048.3542411316</v>
-      </c>
       <c r="D2" t="n">
-        <v>913048.3542411313</v>
+        <v>913048.3542411312</v>
       </c>
       <c r="E2" t="n">
-        <v>817831.1367976685</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="F2" t="n">
         <v>817831.1367976688</v>
@@ -26337,28 +26337,28 @@
         <v>817831.1367976688</v>
       </c>
       <c r="H2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="I2" t="n">
         <v>817831.136797669</v>
       </c>
       <c r="J2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.1367976686</v>
       </c>
       <c r="K2" t="n">
         <v>817831.1367976688</v>
       </c>
       <c r="L2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="M2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="N2" t="n">
         <v>817831.1367976688</v>
       </c>
       <c r="O2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="P2" t="n">
         <v>817831.1367976685</v>
@@ -26441,10 +26441,10 @@
         <v>38928.93672769592</v>
       </c>
       <c r="H4" t="n">
+        <v>38928.93672769592</v>
+      </c>
+      <c r="I4" t="n">
         <v>38928.93672769591</v>
-      </c>
-      <c r="I4" t="n">
-        <v>38928.93672769592</v>
       </c>
       <c r="J4" t="n">
         <v>38928.93672769592</v>
@@ -26456,7 +26456,7 @@
         <v>38928.93672769592</v>
       </c>
       <c r="M4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769591</v>
       </c>
       <c r="N4" t="n">
         <v>38928.93672769592</v>
@@ -26530,13 +26530,13 @@
         <v>-1418478.923709697</v>
       </c>
       <c r="C6" t="n">
-        <v>626522.0273447846</v>
+        <v>626522.0273447844</v>
       </c>
       <c r="D6" t="n">
-        <v>626824.3880147174</v>
+        <v>626824.3880147173</v>
       </c>
       <c r="E6" t="n">
-        <v>639922.8000699726</v>
+        <v>639922.8000699729</v>
       </c>
       <c r="F6" t="n">
         <v>639922.8000699729</v>
@@ -26545,28 +26545,28 @@
         <v>639922.8000699729</v>
       </c>
       <c r="H6" t="n">
-        <v>639922.8000699731</v>
+        <v>639922.8000699729</v>
       </c>
       <c r="I6" t="n">
         <v>639922.8000699731</v>
       </c>
       <c r="J6" t="n">
-        <v>19698.80006997287</v>
+        <v>19698.80006997276</v>
       </c>
       <c r="K6" t="n">
         <v>639922.8000699729</v>
       </c>
       <c r="L6" t="n">
-        <v>639922.800069973</v>
+        <v>639922.8000699729</v>
       </c>
       <c r="M6" t="n">
-        <v>639922.800069973</v>
+        <v>639922.8000699729</v>
       </c>
       <c r="N6" t="n">
         <v>639922.8000699729</v>
       </c>
       <c r="O6" t="n">
-        <v>639922.800069973</v>
+        <v>639922.8000699729</v>
       </c>
       <c r="P6" t="n">
         <v>639922.8000699726</v>
@@ -27675,7 +27675,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E4" t="n">
-        <v>280.9809048369565</v>
+        <v>400</v>
       </c>
       <c r="F4" t="n">
         <v>274.3828559677419</v>
@@ -27684,7 +27684,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H4" t="n">
-        <v>205.3472244622743</v>
+        <v>237.4931652802146</v>
       </c>
       <c r="I4" t="n">
         <v>97.40414414470841</v>
@@ -27720,7 +27720,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T4" t="n">
-        <v>349.9327172413398</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U4" t="n">
         <v>150.8146863564251</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27802,7 +27802,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27936,13 +27936,13 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
-        <v>258.8126637769763</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>187.2441835284046</v>
       </c>
       <c r="O7" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P7" t="n">
         <v>368.8061924102448</v>
@@ -28036,7 +28036,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28045,7 +28045,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28079,10 +28079,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28176,13 +28176,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116848</v>
       </c>
       <c r="O10" t="n">
-        <v>388.0294482079483</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -34831,10 +34831,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.114286432161</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L2" t="n">
-        <v>1673.080039788185</v>
+        <v>1762</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34849,7 +34849,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -34971,7 +34971,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>119.0190951630435</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -34980,7 +34980,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>32.14594081794024</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -35016,7 +35016,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -35232,13 +35232,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35305,10 +35305,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1238.607130132378</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L8" t="n">
-        <v>926.8613366834172</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35320,7 +35320,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
         <v>461.4348583860824</v>
@@ -35472,13 +35472,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35539,10 +35539,10 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
-        <v>1274.04639948992</v>
+        <v>843.741662903763</v>
       </c>
       <c r="L11" t="n">
         <v>1762</v>
@@ -35776,13 +35776,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K14" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L14" t="n">
-        <v>1762</v>
+        <v>1141.752258948503</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -36247,22 +36247,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L20" t="n">
-        <v>926.8613366834174</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>1393.32108786481</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36271,7 +36271,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>118.0642805686905</v>
@@ -36487,16 +36487,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1063.028252950772</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L23" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M23" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N23" t="n">
         <v>570.7505695683558</v>
@@ -36505,10 +36505,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1146.110163245639</v>
       </c>
       <c r="Q23" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
         <v>118.0642805686905</v>
@@ -36724,13 +36724,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
         <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
-        <v>1141.752258948503</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36961,13 +36961,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.98940395526</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L29" t="n">
-        <v>1141.752258948503</v>
+        <v>1762</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -37435,13 +37435,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>1141.752258948503</v>
+        <v>1418.354180383635</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37453,7 +37453,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q35" t="n">
         <v>461.4348583860824</v>
@@ -37672,13 +37672,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>843.741662903763</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L38" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37909,13 +37909,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>843.741662903763</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L41" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
